--- a/environhub/narmadabachaoandolan.xlsx
+++ b/environhub/narmadabachaoandolan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9875" tabRatio="500"/>
+    <workbookView windowWidth="22943" windowHeight="9467" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
   <si>
     <t>Summary</t>
   </si>
@@ -27,15 +27,15 @@
     <t>The NBA emerged as an enraged but inevitable reaction to the Narmada Valley Developmental Project that announced a vision of 30 large, 135 medium, and 3,000 small dams on the Narmada and its tributaries. At that time, numerous protest groups, student factions, NGOs, and transnational networks were already leading the three dam-affected states of Madhya Pradesh, Gujarat, and Maharashtra. Madhya Pradesh and Maharashtra saw groups that had moved from demanding better compensation to seeking a complete closure of such projects. Narmada Ghati Navnirman Samiti (Madhya Pradesh) and the Narmada Ghati Dharangrastha Samiti (Maharashtra) subsequently merged to form the NBA in 1989.While calling for a halt on dam construction, the group concurrently proposed developmental alternatives to combat the problems of irrigation, electricity, and drinking water. However, it wasn’t merely an attack on the dams. The struggle revolved around putting accountability in place—accountability of the World Bank for the project claims and accountability of the government for the project impact. The movement, with Medha Patkar at its helm, had started off primarily as a protest against the Sardar Sarovar Dam but soon encapsulated Maheshwar, Indira Sagar, Omkareshwar, Maan, Beda, Goi, and Jobaat dams. People took to the principle of ‘struggle and reconstruction’ or 'Sangharsh aur Navnirman', an ideological stand that outlines the foundation of this long-drawn movement.</t>
   </si>
   <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Description</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Event Description</t>
-  </si>
-  <si>
     <t>political intervention</t>
   </si>
   <si>
@@ -51,13 +51,10 @@
     <t>Global attention is brought to protests against the dams</t>
   </si>
   <si>
-    <t>international intervention</t>
-  </si>
-  <si>
     <t>World Bank agrees to finance Sardar Sarovar with a contribution of $450 million, without consulting the Indigenous (Adivasi) communities that would be displaced. Their goals are to a) further the progress of India’s long-term power plan, b) bring potentially valuable agricultural land in Gujarat and Rajasthan under irrigation, and c) supply domestic, municipal and industrial water for Gujurat</t>
   </si>
   <si>
-    <t>public response</t>
+    <t>Actions taken</t>
   </si>
   <si>
     <t xml:space="preserve"> Struggle spreads to cover other dams when in 1989 the people displaced as a result of the construction of the Bargi Dam begin an agitation for justice.</t>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>On March 29th, Medha Patkhar, alongwith three representatives from the Narmada Valley, Jamsing Nargave from village Amlali in Badwani district (Madhya Pradesh), Bhagwatibai Jatpuria from village Nissarpur in Dhar district (Madhya Pradesh) begin a fast unto death</t>
-  </si>
-  <si>
-    <t>Medha Patkhar gives time till April 9th to the government to make public proposed action following which she will break her fast</t>
   </si>
   <si>
     <t>Name</t>
@@ -803,9 +797,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -813,6 +807,134 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -830,139 +952,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -975,19 +969,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,25 +1029,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,31 +1053,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,25 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,19 +1113,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1137,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,30 +1160,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1204,6 +1174,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,21 +1217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1254,6 +1224,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,148 +1263,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1746,7 +1740,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1778,13 +1772,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="11.5740740740741" style="1"/>
     <col min="3" max="3" width="23.1388888888889" style="1" customWidth="1"/>
@@ -1792,7 +1786,7 @@
     <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="26.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1803,160 +1797,163 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="52.8" spans="1:3">
-      <c r="A2" s="3">
+    <row r="2" ht="118.8" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>29221</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="382.8" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="158.4" spans="1:3">
-      <c r="A3" s="3">
-        <v>30352</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30438</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" ht="79.2" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30836</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="409.5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="39.6" spans="1:3">
-      <c r="A4" s="3">
-        <v>30747</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="211.2" spans="1:3">
-      <c r="A5" s="3">
-        <v>31084</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>31200</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" ht="184.8" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="79.2" spans="1:3">
-      <c r="A6" s="3">
-        <v>32544</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3">
+        <v>32630</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" ht="171.6" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" ht="79.2" spans="1:3">
-      <c r="A7" s="3">
-        <v>33304</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3">
+        <v>33422</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" ht="303.6" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="132" spans="1:3">
-      <c r="A8" s="3">
-        <v>36652</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3">
+        <v>36682</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" ht="145.2" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" ht="66" spans="1:3">
-      <c r="A9" s="3">
-        <v>37047</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3">
+        <v>37017</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" ht="145.2" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" ht="66" spans="1:3">
-      <c r="A10" s="3">
-        <v>37750</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3">
+        <v>37869</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" ht="250.8" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="105.6" spans="1:3">
-      <c r="A11" s="3">
-        <v>38051</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3">
+        <v>38110</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" ht="132" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" ht="66" spans="1:3">
-      <c r="A12" s="3">
+      <c r="C12" s="3">
         <v>38385</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" ht="132" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" ht="52.8" spans="1:3">
-      <c r="A13" s="3">
-        <v>38780</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3">
+        <v>38810</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" ht="343.2" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="145.2" spans="1:3">
-      <c r="A14" s="3">
+      <c r="C14" s="3">
         <v>38968</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="79.2" spans="1:3">
-      <c r="A15" s="3">
-        <v>38843</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" ht="184.8"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1986,35 +1983,35 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" ht="39.6" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" ht="184.8" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2043,15 +2040,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -2059,7 +2056,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>94</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="4" ht="26.4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>88</v>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="5" ht="26.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>78</v>
@@ -2083,7 +2080,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>74</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>65</v>
@@ -2099,7 +2096,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>65</v>
@@ -2107,7 +2104,7 @@
     </row>
     <row r="9" ht="26.4" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1">
         <v>61</v>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="10" ht="26.4" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>61</v>
@@ -2123,7 +2120,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
@@ -2131,7 +2128,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>58</v>
@@ -2139,7 +2136,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>56</v>
@@ -2147,7 +2144,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
         <v>56</v>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1">
         <v>52</v>
@@ -2163,7 +2160,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>51</v>
@@ -2171,7 +2168,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>49</v>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1">
         <v>47</v>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="19" ht="26.4" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1">
         <v>46</v>
@@ -2195,7 +2192,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1">
         <v>45</v>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1">
         <v>39</v>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1">
         <v>37</v>
@@ -2219,7 +2216,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1">
         <v>29</v>
@@ -2227,7 +2224,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="25" ht="26.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2251,7 +2248,7 @@
     </row>
     <row r="27" ht="26.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -2259,7 +2256,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -2275,7 +2272,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -2283,7 +2280,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -2291,7 +2288,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -2299,7 +2296,7 @@
     </row>
     <row r="33" ht="39.6" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -2307,7 +2304,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -2315,7 +2312,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -2323,7 +2320,7 @@
     </row>
     <row r="36" ht="26.4" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="37" ht="26.4" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -2363,15 +2360,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2387,7 +2384,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2403,7 +2400,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2411,7 +2408,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2419,7 +2416,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2427,7 +2424,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>29</v>
@@ -2443,7 +2440,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2451,7 +2448,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -2459,7 +2456,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2475,7 +2472,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2483,7 +2480,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>23</v>
@@ -2491,7 +2488,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>27</v>
@@ -2499,7 +2496,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2507,7 +2504,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -2515,7 +2512,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -2523,7 +2520,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2531,7 +2528,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>29</v>
@@ -2539,7 +2536,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2547,7 +2544,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2555,7 +2552,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2563,7 +2560,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -2571,7 +2568,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -2579,7 +2576,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2587,7 +2584,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29">
         <v>68</v>
@@ -2595,7 +2592,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>100</v>
@@ -2603,7 +2600,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>99</v>
@@ -2611,7 +2608,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -2619,7 +2616,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -2627,7 +2624,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>53</v>
@@ -2635,7 +2632,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -2643,7 +2640,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>22</v>
@@ -2651,7 +2648,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>27</v>
@@ -2659,7 +2656,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -2667,7 +2664,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>31</v>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -2683,7 +2680,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -2691,7 +2688,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -2699,7 +2696,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B43">
         <v>30</v>
@@ -2707,7 +2704,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>35</v>
@@ -2715,7 +2712,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>40</v>
@@ -2723,7 +2720,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>34</v>
@@ -2731,7 +2728,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B47">
         <v>52</v>
@@ -2739,7 +2736,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B48">
         <v>14</v>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>53</v>
@@ -2755,7 +2752,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50">
         <v>15</v>
@@ -2763,7 +2760,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -2771,7 +2768,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -2779,7 +2776,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B53">
         <v>15</v>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54">
         <v>22</v>
@@ -2795,7 +2792,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B55">
         <v>24</v>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -2811,7 +2808,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -2819,7 +2816,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -2827,7 +2824,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -2835,7 +2832,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -2843,7 +2840,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -2851,7 +2848,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>26</v>
@@ -2859,7 +2856,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -2867,7 +2864,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -2883,7 +2880,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -2891,7 +2888,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B67">
         <v>16</v>
@@ -2899,7 +2896,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>17</v>
@@ -2907,7 +2904,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -2915,7 +2912,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -2923,7 +2920,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B71">
         <v>16</v>
@@ -2931,7 +2928,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -2939,7 +2936,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73">
         <v>13</v>
@@ -2947,7 +2944,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <v>16</v>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -2963,7 +2960,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -2971,7 +2968,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -2979,7 +2976,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B78">
         <v>7</v>
@@ -2987,7 +2984,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79">
         <v>12</v>
@@ -2995,7 +2992,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -3003,7 +3000,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B81">
         <v>20</v>
@@ -3011,7 +3008,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -3019,7 +3016,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B83">
         <v>11</v>
@@ -3027,7 +3024,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B84">
         <v>14</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B85">
         <v>9</v>
@@ -3043,7 +3040,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -3051,7 +3048,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87">
         <v>12</v>
@@ -3059,7 +3056,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -3067,7 +3064,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -3075,7 +3072,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -3083,7 +3080,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -3091,7 +3088,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -3107,7 +3104,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B94">
         <v>10</v>
@@ -3115,7 +3112,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95">
         <v>11</v>
@@ -3123,7 +3120,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B96">
         <v>9</v>
@@ -3131,7 +3128,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -3139,7 +3136,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B98">
         <v>11</v>
@@ -3147,7 +3144,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -3155,7 +3152,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -3163,7 +3160,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -3171,7 +3168,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -3179,7 +3176,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -3187,7 +3184,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -3203,7 +3200,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -3211,7 +3208,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B107">
         <v>9</v>
@@ -3219,7 +3216,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B108">
         <v>10</v>
@@ -3227,7 +3224,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -3235,7 +3232,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -3243,7 +3240,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -3259,7 +3256,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -3267,7 +3264,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -3283,7 +3280,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -3291,7 +3288,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -3299,7 +3296,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -3315,7 +3312,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B120">
         <v>11</v>
@@ -3323,7 +3320,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -3331,7 +3328,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -3339,7 +3336,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -3347,7 +3344,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -3355,7 +3352,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -3363,7 +3360,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -3371,7 +3368,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -3379,7 +3376,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -3387,7 +3384,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -3395,7 +3392,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -3403,7 +3400,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -3411,7 +3408,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B132">
         <v>9</v>
@@ -3419,7 +3416,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -3427,7 +3424,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -3443,7 +3440,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -3451,7 +3448,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -3459,7 +3456,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -3467,7 +3464,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -3475,7 +3472,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -3483,7 +3480,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -3491,7 +3488,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -3499,7 +3496,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -3507,7 +3504,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B144">
         <v>11</v>
@@ -3515,7 +3512,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -3523,7 +3520,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -3531,7 +3528,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -3539,7 +3536,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -3547,7 +3544,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -3555,7 +3552,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -3563,7 +3560,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -3571,7 +3568,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -3579,7 +3576,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -3587,7 +3584,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -3595,7 +3592,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B155">
         <v>6</v>
@@ -3603,7 +3600,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -3611,7 +3608,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B157">
         <v>6</v>
@@ -3619,7 +3616,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B158">
         <v>5</v>
@@ -3627,7 +3624,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3635,7 +3632,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -3643,7 +3640,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -3651,7 +3648,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B162">
         <v>6</v>
@@ -3659,7 +3656,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B163">
         <v>5</v>
@@ -3667,7 +3664,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B164">
         <v>8</v>
@@ -3675,7 +3672,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B165">
         <v>6</v>
@@ -3683,7 +3680,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B166">
         <v>10</v>
@@ -3691,7 +3688,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B167">
         <v>9</v>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B168">
         <v>8</v>
@@ -3707,7 +3704,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B169">
         <v>8</v>
@@ -3715,7 +3712,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -3723,7 +3720,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B171">
         <v>5</v>
@@ -3731,7 +3728,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3739,7 +3736,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -3747,7 +3744,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B174">
         <v>5</v>
@@ -3755,7 +3752,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B175">
         <v>8</v>
@@ -3763,7 +3760,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B176">
         <v>6</v>
@@ -3771,7 +3768,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -3787,7 +3784,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -3795,7 +3792,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B180">
         <v>6</v>
@@ -3803,7 +3800,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B181">
         <v>6</v>
@@ -3811,7 +3808,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -3819,7 +3816,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3827,7 +3824,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3835,7 +3832,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3868,17 +3865,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" ht="105.6" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" ht="171.6" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
